--- a/datosEvelia.xlsx
+++ b/datosEvelia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t xml:space="preserve">Tipo Usuario</t>
   </si>
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +74,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +124,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -151,90 +153,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>18645043</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>18645044</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>18645045</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>99999001</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>99999002</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>99999003</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>99999003</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>1110011</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1110012</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1110013</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1110014</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>1110015</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>10012</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>10013</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>10014</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>10015</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
